--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2313.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2313.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.320604209068229</v>
+        <v>0.9963980317115784</v>
       </c>
       <c r="B1">
-        <v>1.738988480727299</v>
+        <v>1.878901481628418</v>
       </c>
       <c r="C1">
-        <v>1.458174491376239</v>
+        <v>2.097723722457886</v>
       </c>
       <c r="D1">
-        <v>1.515452171861589</v>
+        <v>2.130523920059204</v>
       </c>
       <c r="E1">
-        <v>1.758337102577476</v>
+        <v>1.396522164344788</v>
       </c>
     </row>
   </sheetData>
